--- a/03_Outputs/all/01_TablasDescriptivas/idx14_seguridad_vr.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx14_seguridad_vr.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.861110951395428</v>
+        <v>1.861110951395429</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.193442750333162</v>
+        <v>1.193442750333163</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -422,7 +422,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.9568529804815824</v>
+        <v>0.9568529804815837</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.3946420108052323</v>
+        <v>0.3946420108052325</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>1.861110951395428</v>
+        <v>1.861110951395429</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>3.05455370172859</v>
+        <v>3.054553701728592</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>4.011406682210173</v>
+        <v>4.011406682210175</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>4.60535798919477</v>
+        <v>4.605357989194772</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>5.000000000000003</v>
+        <v>5.000000000000004</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>37.22221902790854</v>
+        <v>37.22221902790855</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>23.86885500666322</v>
+        <v>23.86885500666323</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>19.13705960963164</v>
+        <v>19.13705960963166</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>7.89284021610464</v>
+        <v>7.892840216104643</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>37.22221902790854</v>
+        <v>37.22221902790855</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>61.09107403457177</v>
+        <v>61.09107403457179</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>80.22813364420341</v>
+        <v>80.22813364420344</v>
       </c>
       <c r="C19">
         <v>3</v>
